--- a/medicine/Psychotrope/Liste_de_microbrasseries_au_Québec/Liste_de_microbrasseries_au_Québec.xlsx
+++ b/medicine/Psychotrope/Liste_de_microbrasseries_au_Québec/Liste_de_microbrasseries_au_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_microbrasseries_au_Qu%C3%A9bec</t>
+          <t>Liste_de_microbrasseries_au_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceci est une liste de microbrasseries, brasseries artisanales ou bistrot-brasseries québécoises classés par région administrative du Québec, au Canada. Depuis 2016, le Québec compte plus de 150 microbrasseries, bistrot-brasseries ou brasseries artisanales produisant quelque 3348 bières[1]. La part des ventes des microbrasseries aux bars, bistrot-brasseries et restaurants est passée de 8,7 % à 17,3 % en moins de 10 ans[2]. Seule la région administrative Nord-du-Québec ne possède pas encore de microbrasseries[3].
-Depuis, la fondation des entreprises brassicoles dans la province de Québec n'a pas cessé d'augmenter. Le cap des 300 permis de brassage au Québec a été franchi en avril 2022. À date de juin 2023, le nombre total est de 331 entreprises, soit 95 produisant de la bière de façon artisanale, soit 236 de façon industriel[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceci est une liste de microbrasseries, brasseries artisanales ou bistrot-brasseries québécoises classés par région administrative du Québec, au Canada. Depuis 2016, le Québec compte plus de 150 microbrasseries, bistrot-brasseries ou brasseries artisanales produisant quelque 3348 bières. La part des ventes des microbrasseries aux bars, bistrot-brasseries et restaurants est passée de 8,7 % à 17,3 % en moins de 10 ans. Seule la région administrative Nord-du-Québec ne possède pas encore de microbrasseries.
+Depuis, la fondation des entreprises brassicoles dans la province de Québec n'a pas cessé d'augmenter. Le cap des 300 permis de brassage au Québec a été franchi en avril 2022. À date de juin 2023, le nombre total est de 331 entreprises, soit 95 produisant de la bière de façon artisanale, soit 236 de façon industriel.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_microbrasseries_au_Qu%C3%A9bec</t>
+          <t>Liste_de_microbrasseries_au_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,59 +526,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Classement par type de permis
-Le nombre de permis d'artisans brasseurs et de brasseurs industriels est au nombre de 332 à la mi-mai 2016[5]. De ce nombre, nous retrouvons 97permis d'artisans brasseurs et 235 permis de brasseurs industriels, incluant les trois grands brasseurs: Labatt, Molson et Sleeman/Unibroue ainsi que deux microbrasseries fermées: Maskoutains et Tchequébec. De ce nombre, 77 sont membres de l'association des microbrasseries du Québec[6].
-Entre 2005 et 2015, le nombre de microbrasseries au Québec a augmenté de 345 %[2]. De 2018 à 2023, ce nombre a encore doublé[7].
-La coopérative de solidarité brassicole MaBrasserie est fondée en 2015 dans une ancienne tannerie du quartier Rosemont à Montréal. La coop regroupe 5 microbrasseries, des membres travailleurs et différents partenaires[8]. Les brasseries Isle de Garde et Broue Pub Brouhaha y ont notamment brassé plusieurs bières.
+          <t>Classement par type de permis</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre de permis d'artisans brasseurs et de brasseurs industriels est au nombre de 332 à la mi-mai 2016. De ce nombre, nous retrouvons 97permis d'artisans brasseurs et 235 permis de brasseurs industriels, incluant les trois grands brasseurs: Labatt, Molson et Sleeman/Unibroue ainsi que deux microbrasseries fermées: Maskoutains et Tchequébec. De ce nombre, 77 sont membres de l'association des microbrasseries du Québec.
+Entre 2005 et 2015, le nombre de microbrasseries au Québec a augmenté de 345 %. De 2018 à 2023, ce nombre a encore doublé.
+La coopérative de solidarité brassicole MaBrasserie est fondée en 2015 dans une ancienne tannerie du quartier Rosemont à Montréal. La coop regroupe 5 microbrasseries, des membres travailleurs et différents partenaires. Les brasseries Isle de Garde et Broue Pub Brouhaha y ont notamment brassé plusieurs bières.
 En 2023, les microbrasseries sont présentes dans 164 villes au Québec. Les régions avec la plus grande concentration d'entreprises brassicoles au Québec sont dans la Capitale Nationale avec 38, à Montréal avec 52 et en Montérégie avec 61 entreprises.
-L'Association de microbrasseries du Québec (AMBQ) constat 37 nouvelles entreprises dans le stade de démarrage en 2023[4].
-Densité du nombre de microbrasseries</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_de_microbrasseries_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_microbrasseries_au_Qu%C3%A9bec</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Classement par régions administratives</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Abitibi-Témiscamingue
-Bas-Saint-Laurent
-Capitale-Nationale
-Centre-du-Québec
-Chaudière-Appalaches
-Côte-Nord
-Estrie
-Gaspésie–Îles-de-la-Madeleine
-Lanaudière
-Laurentides
-Laval
-Mauricie
-Montérégie
-Montréal
-Nord-du-Québec
-Outaouais
-Saguenay–Lac-Saint-Jean</t>
+L'Association de microbrasseries du Québec (AMBQ) constat 37 nouvelles entreprises dans le stade de démarrage en 2023.
+</t>
         </is>
       </c>
     </row>
